--- a/req_summary.xlsx
+++ b/req_summary.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="请求汇总" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>请求次数</t>
         </is>
       </c>
     </row>
